--- a/Projet-location-velo/Devis.xlsx
+++ b/Projet-location-velo/Devis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DEVIS</t>
   </si>
@@ -50,9 +50,6 @@
     <t>DESIGNATION</t>
   </si>
   <si>
-    <t>NBR JOURS</t>
-  </si>
-  <si>
     <t>MONTANT UNITAIRE</t>
   </si>
   <si>
@@ -66,6 +63,18 @@
   </si>
   <si>
     <t>TOTAL TTC</t>
+  </si>
+  <si>
+    <t>Hébergement</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>OFFERT</t>
+  </si>
+  <si>
+    <t>UNITE</t>
   </si>
 </sst>
 </file>
@@ -263,17 +272,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -283,7 +307,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -296,16 +322,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -315,9 +334,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,21 +351,22 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,162 +664,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>300</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>B4*C4</f>
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>250</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D9" si="0">B5*C5</f>
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D10" si="0">B5*C5</f>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>700</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>350</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>600</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="18">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6">
-        <v>450</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
+      <c r="D13" s="8">
+        <f>SUM(D4:D12)</f>
+        <v>10470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9">
-        <f>SUM(D4:D10)</f>
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6" t="s">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="10">
-        <f>SUM(D11)</f>
-        <v>26700</v>
+      <c r="D15" s="9">
+        <f>SUM(D13)</f>
+        <v>10470</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Projet-location-velo/Devis.xlsx
+++ b/Projet-location-velo/Devis.xlsx
@@ -41,12 +41,6 @@
     <t>Graphiste</t>
   </si>
   <si>
-    <t>Chef de projet</t>
-  </si>
-  <si>
-    <t>Développeur</t>
-  </si>
-  <si>
     <t>DESIGNATION</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>UNITE</t>
+  </si>
+  <si>
+    <t>Développement</t>
+  </si>
+  <si>
+    <t>Pôle Validation</t>
   </si>
 </sst>
 </file>
@@ -355,6 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,10 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,7 +652,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,26 +664,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -763,22 +763,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <v>600</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B10" s="15">
         <v>20</v>
@@ -792,37 +792,37 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>15</v>
+      <c r="A11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8">
         <f>SUM(D4:D12)</f>
-        <v>10470</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
@@ -832,11 +832,11 @@
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="9">
         <f>SUM(D13)</f>
-        <v>10470</v>
+        <v>9270</v>
       </c>
     </row>
   </sheetData>

--- a/Projet-location-velo/Devis.xlsx
+++ b/Projet-location-velo/Devis.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DEVIS</t>
   </si>
   <si>
-    <t>Maquettage</t>
-  </si>
-  <si>
-    <t>Cahier des charges</t>
-  </si>
-  <si>
     <t>Photos</t>
   </si>
   <si>
@@ -68,13 +62,25 @@
     <t>OFFERT</t>
   </si>
   <si>
-    <t>UNITE</t>
-  </si>
-  <si>
     <t>Développement</t>
   </si>
   <si>
     <t>Pôle Validation</t>
+  </si>
+  <si>
+    <t>Devis valable 1 mois</t>
+  </si>
+  <si>
+    <t>Date : Le mardi 03 décembre 2019</t>
+  </si>
+  <si>
+    <t>Signature du client</t>
+  </si>
+  <si>
+    <t>précédée de la mention "Lu et approuvé"</t>
+  </si>
+  <si>
+    <t>TEMPS</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +374,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -384,6 +393,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle à coins arrondis 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="4200525"/>
+          <a:ext cx="2400300" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,34 +742,24 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>300</v>
-      </c>
-      <c r="D4" s="6">
-        <f>B4*C4</f>
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,147 +767,150 @@
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D10" si="0">B5*C5</f>
-        <v>500</v>
+        <f t="shared" ref="D5:D9" si="0">B5*C5</f>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
+      <c r="A9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15">
+        <v>20</v>
       </c>
       <c r="C9" s="5">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="15">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
-        <v>350</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <f>SUM(D5:D11)</f>
+        <v>8470</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8">
-        <f>SUM(D4:D12)</f>
-        <v>9270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
-        <f>SUM(D13)</f>
-        <v>9270</v>
+      <c r="D14" s="9">
+        <f>SUM(D12)</f>
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>